--- a/data/trans_bre/P8_1_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P8_1_R-Provincia-trans_bre.xlsx
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,32; 12,47</t>
+          <t>0,69; 12,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,17 +678,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,66; 16,75</t>
+          <t>2,21; 16,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 9,09</t>
+          <t>-1,58; 9,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,38; 131,8</t>
+          <t>4,14; 135,08</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,73; 106,82</t>
+          <t>9,11; 107,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-10,33; 69,82</t>
+          <t>-7,63; 70,96</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,15; 16,96</t>
+          <t>7,45; 17,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,2; 17,51</t>
+          <t>7,26; 17,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,19; 13,96</t>
+          <t>3,85; 13,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,53; 11,47</t>
+          <t>1,56; 11,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>48,8; 170,25</t>
+          <t>51,39; 178,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>39,43; 143,4</t>
+          <t>39,55; 144,99</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>28,55; 147,42</t>
+          <t>26,62; 129,53</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,81; 80,78</t>
+          <t>7,73; 77,18</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,64; 19,23</t>
+          <t>8,63; 19,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,01; 15,11</t>
+          <t>3,09; 15,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,8; 12,52</t>
+          <t>0,3; 12,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,22; 10,9</t>
+          <t>1,8; 11,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>84,55; 362,43</t>
+          <t>85,48; 379,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,08; 128,65</t>
+          <t>15,65; 130,73</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,95; 113,71</t>
+          <t>2,05; 108,03</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,64; 97,15</t>
+          <t>9,53; 108,14</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,32; 16,62</t>
+          <t>5,93; 16,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,63; 18,91</t>
+          <t>9,29; 18,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,88; 18,18</t>
+          <t>5,55; 17,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 8,83</t>
+          <t>-3,65; 8,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>53,55; 224,94</t>
+          <t>52,61; 234,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>53,71; 140,74</t>
+          <t>52,15; 140,36</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>32,72; 161,48</t>
+          <t>32,56; 153,7</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-16,77; 58,54</t>
+          <t>-15,36; 51,34</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,69; 16,26</t>
+          <t>3,07; 15,74</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,96; 19,85</t>
+          <t>4,04; 20,61</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,27; 16,3</t>
+          <t>2,23; 16,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,63; 14,39</t>
+          <t>1,57; 14,55</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>34,18; 341,39</t>
+          <t>32,55; 317,75</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>20,31; 166,21</t>
+          <t>19,94; 167,81</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>13,24; 174,74</t>
+          <t>12,48; 171,89</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>13,82; 143,76</t>
+          <t>12,98; 149,17</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,99; 20,58</t>
+          <t>8,59; 21,25</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,26; 15,91</t>
+          <t>1,5; 16,11</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,29; 17,87</t>
+          <t>2,69; 18,18</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,8; 10,75</t>
+          <t>1,98; 10,76</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>56,26; 248,96</t>
+          <t>64,7; 256,87</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>5,71; 105,89</t>
+          <t>6,53; 113,46</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>12,84; 105,26</t>
+          <t>9,51; 105,29</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>13,81; 129,43</t>
+          <t>15,07; 128,02</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,04; 13,07</t>
+          <t>5,05; 13,6</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,79; 15,76</t>
+          <t>7,23; 15,91</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,79; 12,65</t>
+          <t>4,09; 12,33</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 9,81</t>
+          <t>-4,65; 9,07</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>35,57; 123,66</t>
+          <t>34,31; 127,43</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>47,6; 155,25</t>
+          <t>48,73; 155,6</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>24,2; 112,13</t>
+          <t>26,31; 106,46</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-18,82; 64,61</t>
+          <t>-21,78; 59,35</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,32; 11,99</t>
+          <t>4,27; 12,33</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,12; 11,05</t>
+          <t>3,1; 11,28</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4,25; 11,68</t>
+          <t>4,6; 11,78</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-11,6; 12,57</t>
+          <t>-9,18; 12,52</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>29,59; 108,36</t>
+          <t>27,42; 107,33</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>18,01; 90,88</t>
+          <t>19,17; 90,03</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>31,4; 117,37</t>
+          <t>33,14; 119,22</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-36,47; 99,2</t>
+          <t>-28,53; 101,4</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>8,59; 12,13</t>
+          <t>8,39; 11,99</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>8,83; 12,65</t>
+          <t>8,75; 12,55</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>6,84; 10,65</t>
+          <t>6,78; 10,56</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 7,87</t>
+          <t>-0,11; 7,8</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>70,45; 116,02</t>
+          <t>68,36; 114,23</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>56,0; 92,77</t>
+          <t>56,65; 92,05</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>47,23; 81,89</t>
+          <t>46,15; 79,94</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 52,78</t>
+          <t>-3,98; 51,65</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P8_1_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P8_1_R-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,69; 12,6</t>
+          <t>0,43; 12,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,21; 16,55</t>
+          <t>1,82; 16,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,14; 135,08</t>
+          <t>1,0; 131,97</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,11; 107,52</t>
+          <t>8,0; 113,77</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,45; 17,36</t>
+          <t>7,41; 16,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,26; 17,69</t>
+          <t>7,14; 17,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,85; 13,5</t>
+          <t>4,34; 13,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>51,39; 178,46</t>
+          <t>48,07; 166,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>39,55; 144,99</t>
+          <t>38,58; 143,04</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>26,62; 129,53</t>
+          <t>30,38; 135,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,63; 19,46</t>
+          <t>8,57; 19,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,09; 15,54</t>
+          <t>2,79; 14,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,3; 12,04</t>
+          <t>0,87; 12,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>85,48; 379,8</t>
+          <t>85,22; 369,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,65; 130,73</t>
+          <t>14,18; 125,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,05; 108,03</t>
+          <t>4,33; 112,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,93; 16,21</t>
+          <t>5,96; 16,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,29; 18,65</t>
+          <t>9,7; 19,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,55; 17,67</t>
+          <t>6,14; 18,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>52,61; 234,36</t>
+          <t>51,73; 243,63</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>52,15; 140,36</t>
+          <t>55,04; 145,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>32,56; 153,7</t>
+          <t>34,62; 149,25</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,07; 15,74</t>
+          <t>3,19; 15,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,04; 20,61</t>
+          <t>3,58; 19,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,23; 16,5</t>
+          <t>2,33; 16,6</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>32,55; 317,75</t>
+          <t>27,26; 319,17</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>19,94; 167,81</t>
+          <t>17,72; 157,3</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,48; 171,89</t>
+          <t>13,87; 168,63</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,59; 21,25</t>
+          <t>7,77; 21,01</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,5; 16,11</t>
+          <t>1,93; 16,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,69; 18,18</t>
+          <t>3,2; 18,14</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>64,7; 256,87</t>
+          <t>57,74; 256,18</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,53; 113,46</t>
+          <t>6,56; 110,97</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,51; 105,29</t>
+          <t>11,4; 102,33</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1268,17 +1268,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,05; 13,6</t>
+          <t>4,79; 13,34</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,23; 15,91</t>
+          <t>7,34; 15,94</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,09; 12,33</t>
+          <t>3,38; 12,1</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1288,17 +1288,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>34,31; 127,43</t>
+          <t>33,97; 132,84</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>48,73; 155,6</t>
+          <t>53,89; 156,44</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>26,31; 106,46</t>
+          <t>20,52; 101,23</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1368,17 +1368,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,27; 12,33</t>
+          <t>4,31; 12,14</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,1; 11,28</t>
+          <t>3,42; 11,32</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4,6; 11,78</t>
+          <t>4,22; 11,61</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1388,17 +1388,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>27,42; 107,33</t>
+          <t>27,69; 103,78</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>19,17; 90,03</t>
+          <t>20,86; 90,57</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>33,14; 119,22</t>
+          <t>31,73; 118,17</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1468,17 +1468,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>8,39; 11,99</t>
+          <t>8,45; 11,78</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>8,75; 12,55</t>
+          <t>8,72; 12,61</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>6,78; 10,56</t>
+          <t>6,86; 10,82</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1488,17 +1488,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>68,36; 114,23</t>
+          <t>69,17; 112,43</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>56,65; 92,05</t>
+          <t>55,63; 91,09</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>46,15; 79,94</t>
+          <t>46,71; 82,76</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">

--- a/data/trans_bre/P8_1_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P8_1_R-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,43; 12,56</t>
+          <t>0,32; 12,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,17 +678,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,82; 16,96</t>
+          <t>1,66; 16,75</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 9,2</t>
+          <t>-1,81; 9,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 131,97</t>
+          <t>1,38; 131,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,0; 113,77</t>
+          <t>6,73; 106,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-7,63; 70,96</t>
+          <t>-10,33; 69,82</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,41; 16,68</t>
+          <t>7,15; 16,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,14; 17,98</t>
+          <t>7,2; 17,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,34; 13,52</t>
+          <t>4,19; 13,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,56; 11,24</t>
+          <t>2,53; 11,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>48,07; 166,81</t>
+          <t>48,8; 170,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>38,58; 143,04</t>
+          <t>39,43; 143,4</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>30,38; 135,2</t>
+          <t>28,55; 147,42</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,73; 77,18</t>
+          <t>11,81; 80,78</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,57; 19,0</t>
+          <t>8,64; 19,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,79; 14,97</t>
+          <t>2,01; 15,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,87; 12,69</t>
+          <t>0,8; 12,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,8; 11,6</t>
+          <t>1,22; 10,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>85,22; 369,63</t>
+          <t>84,55; 362,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,18; 125,15</t>
+          <t>10,08; 128,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,33; 112,87</t>
+          <t>3,95; 113,71</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,53; 108,14</t>
+          <t>6,64; 97,15</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,96; 16,22</t>
+          <t>6,32; 16,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,7; 19,15</t>
+          <t>9,63; 18,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,14; 18,28</t>
+          <t>5,88; 18,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 8,37</t>
+          <t>-3,89; 8,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>51,73; 243,63</t>
+          <t>53,55; 224,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>55,04; 145,04</t>
+          <t>53,71; 140,74</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>34,62; 149,25</t>
+          <t>32,72; 161,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-15,36; 51,34</t>
+          <t>-16,77; 58,54</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,19; 15,95</t>
+          <t>3,69; 16,26</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,58; 19,81</t>
+          <t>3,96; 19,85</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,33; 16,6</t>
+          <t>2,27; 16,3</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,57; 14,55</t>
+          <t>1,63; 14,39</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>27,26; 319,17</t>
+          <t>34,18; 341,39</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>17,72; 157,3</t>
+          <t>20,31; 166,21</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>13,87; 168,63</t>
+          <t>13,24; 174,74</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>12,98; 149,17</t>
+          <t>13,82; 143,76</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,77; 21,01</t>
+          <t>7,99; 20,58</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,93; 16,49</t>
+          <t>1,26; 15,91</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,2; 18,14</t>
+          <t>3,29; 17,87</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,98; 10,76</t>
+          <t>1,8; 10,75</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>57,74; 256,18</t>
+          <t>56,26; 248,96</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,56; 110,97</t>
+          <t>5,71; 105,89</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>11,4; 102,33</t>
+          <t>12,84; 105,26</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>15,07; 128,02</t>
+          <t>13,81; 129,43</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,79; 13,34</t>
+          <t>5,04; 13,07</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,34; 15,94</t>
+          <t>6,79; 15,76</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,38; 12,1</t>
+          <t>3,79; 12,65</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 9,07</t>
+          <t>-3,4; 9,81</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>33,97; 132,84</t>
+          <t>35,57; 123,66</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>53,89; 156,44</t>
+          <t>47,6; 155,25</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>20,52; 101,23</t>
+          <t>24,2; 112,13</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-21,78; 59,35</t>
+          <t>-18,82; 64,61</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,31; 12,14</t>
+          <t>4,32; 11,99</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,42; 11,32</t>
+          <t>3,12; 11,05</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4,22; 11,61</t>
+          <t>4,25; 11,68</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-9,18; 12,52</t>
+          <t>-11,6; 12,57</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>27,69; 103,78</t>
+          <t>29,59; 108,36</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>20,86; 90,57</t>
+          <t>18,01; 90,88</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>31,73; 118,17</t>
+          <t>31,4; 117,37</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-28,53; 101,4</t>
+          <t>-36,47; 99,2</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>8,45; 11,78</t>
+          <t>8,59; 12,13</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>8,72; 12,61</t>
+          <t>8,83; 12,65</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>6,86; 10,82</t>
+          <t>6,84; 10,65</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 7,8</t>
+          <t>-0,16; 7,87</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>69,17; 112,43</t>
+          <t>70,45; 116,02</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>55,63; 91,09</t>
+          <t>56,0; 92,77</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>46,71; 82,76</t>
+          <t>47,23; 81,89</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 51,65</t>
+          <t>-3,15; 52,78</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P8_1_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P8_1_R-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>11,92</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,76</t>
+          <t>4,1</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,51%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>23,1%</t>
+          <t>27,15%</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,99; 19,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 9,09</t>
+          <t>-1,59; 9,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,86; 147,05</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-10,33; 69,82</t>
+          <t>-8,68; 78,02</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,96</t>
+          <t>7,56</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>40,66%</t>
+          <t>46,72%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,53; 11,47</t>
+          <t>3,25; 11,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,81; 80,78</t>
+          <t>15,92; 89,01</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,26</t>
+          <t>6,42</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>46,44%</t>
+          <t>49,3%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,22; 10,9</t>
+          <t>1,6; 11,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,64; 97,15</t>
+          <t>8,57; 101,66</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>14,18</t>
+          <t>15,9</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,64</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>91,2%</t>
+          <t>108,46%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>13,78%</t>
+          <t>-2,67%</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,63; 18,91</t>
+          <t>9,9; 21,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 8,83</t>
+          <t>-10,3; 6,18</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>53,71; 140,74</t>
+          <t>54,01; 179,98</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-16,77; 58,54</t>
+          <t>-45,1; 39,56</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>9,25</t>
+          <t>7,31</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>75,9%</t>
+          <t>60,3%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,63; 14,39</t>
+          <t>-3,37; 13,78</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>13,82; 143,76</t>
+          <t>-21,33; 128,55</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>6,3</t>
+          <t>6,48</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>59,46%</t>
+          <t>62,15%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,8; 10,75</t>
+          <t>1,96; 10,92</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>13,81; 129,43</t>
+          <t>15,41; 133,69</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,2</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>25,22%</t>
+          <t>11,89%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 9,81</t>
+          <t>-7,62; 9,32</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-18,82; 64,61</t>
+          <t>-44,45; 61,21</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>6,08</t>
+          <t>-11,63</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>33,21%</t>
+          <t>-32,23%</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-11,6; 12,57</t>
+          <t>-49,01; 12,35</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-36,47; 99,2</t>
+          <t>-68,11; 95,49</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>5,52</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>33,86%</t>
+          <t>-1,71%</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 7,87</t>
+          <t>-22,4; 6,5</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 52,78</t>
+          <t>-55,18; 44,88</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P8_1_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P8_1_R-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,32; 12,47</t>
+          <t>0,19; 13,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,99; 19,54</t>
+          <t>5,13; 18,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,66; 16,75</t>
+          <t>1,72; 16,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 9,17</t>
+          <t>-1,4; 9,49</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,38; 131,8</t>
+          <t>-0,41; 147,97</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>23,86; 147,05</t>
+          <t>26,23; 141,04</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,73; 106,82</t>
+          <t>7,04; 110,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-8,68; 78,02</t>
+          <t>-7,88; 78,23</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,15; 16,96</t>
+          <t>7,54; 17,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,2; 17,51</t>
+          <t>7,04; 17,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,19; 13,96</t>
+          <t>4,17; 13,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,25; 11,99</t>
+          <t>3,01; 11,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>48,8; 170,25</t>
+          <t>52,54; 174,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>39,43; 143,4</t>
+          <t>39,49; 143,39</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>28,55; 147,42</t>
+          <t>29,48; 136,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,92; 89,01</t>
+          <t>15,9; 85,91</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,64; 19,23</t>
+          <t>8,77; 19,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,01; 15,11</t>
+          <t>2,44; 14,81</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,8; 12,52</t>
+          <t>1,04; 12,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,6; 11,04</t>
+          <t>1,9; 10,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>84,55; 362,43</t>
+          <t>85,53; 357,35</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,08; 128,65</t>
+          <t>13,6; 125,67</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,95; 113,71</t>
+          <t>6,46; 111,01</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,57; 101,66</t>
+          <t>10,29; 99,59</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,32; 16,62</t>
+          <t>6,15; 16,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,9; 21,47</t>
+          <t>10,07; 21,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,88; 18,18</t>
+          <t>6,22; 18,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,3; 6,18</t>
+          <t>-10,57; 6,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>53,55; 224,94</t>
+          <t>51,56; 226,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>54,01; 179,98</t>
+          <t>54,1; 188,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>32,72; 161,48</t>
+          <t>35,3; 147,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-45,1; 39,56</t>
+          <t>-46,98; 39,2</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,69; 16,26</t>
+          <t>3,58; 15,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,96; 19,85</t>
+          <t>3,43; 19,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,27; 16,3</t>
+          <t>2,32; 16,99</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 13,78</t>
+          <t>-2,48; 13,63</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>34,18; 341,39</t>
+          <t>36,61; 291,84</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>20,31; 166,21</t>
+          <t>17,25; 158,77</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>13,24; 174,74</t>
+          <t>13,65; 177,1</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-21,33; 128,55</t>
+          <t>-16,57; 133,18</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,99; 20,58</t>
+          <t>7,41; 20,86</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,26; 15,91</t>
+          <t>1,25; 15,94</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,29; 17,87</t>
+          <t>2,7; 17,88</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,96; 10,92</t>
+          <t>2,08; 10,85</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>56,26; 248,96</t>
+          <t>55,35; 276,77</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>5,71; 105,89</t>
+          <t>3,21; 103,03</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>12,84; 105,26</t>
+          <t>11,78; 105,81</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>15,41; 133,69</t>
+          <t>15,86; 133,63</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,04; 13,07</t>
+          <t>4,6; 12,94</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,79; 15,76</t>
+          <t>7,02; 15,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,79; 12,65</t>
+          <t>3,74; 12,33</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,62; 9,32</t>
+          <t>-9,15; 8,72</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>35,57; 123,66</t>
+          <t>32,52; 129,59</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>47,6; 155,25</t>
+          <t>50,09; 149,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>24,2; 112,13</t>
+          <t>23,25; 110,48</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-44,45; 61,21</t>
+          <t>-47,35; 56,71</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,32; 11,99</t>
+          <t>4,45; 11,7</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,12; 11,05</t>
+          <t>3,06; 11,02</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4,25; 11,68</t>
+          <t>4,7; 11,87</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-49,01; 12,35</t>
+          <t>-47,12; 12,44</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>29,59; 108,36</t>
+          <t>29,14; 105,73</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>18,01; 90,88</t>
+          <t>19,02; 91,08</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>31,4; 117,37</t>
+          <t>33,91; 123,04</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-68,11; 95,49</t>
+          <t>-66,95; 100,6</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>8,59; 12,13</t>
+          <t>8,48; 12,04</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>8,83; 12,65</t>
+          <t>8,73; 12,67</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>6,84; 10,65</t>
+          <t>6,93; 10,62</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-22,4; 6,5</t>
+          <t>-21,26; 6,37</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>70,45; 116,02</t>
+          <t>71,36; 115,43</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>56,0; 92,77</t>
+          <t>56,04; 92,82</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>47,23; 81,89</t>
+          <t>47,66; 81,36</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-55,18; 44,88</t>
+          <t>-52,8; 43,65</t>
         </is>
       </c>
     </row>
